--- a/data/takipTahmin_sanayi.xlsx
+++ b/data/takipTahmin_sanayi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uguraskar\Documents\Github\pjournal_mef04-uguraskar\mef04-uguraskar\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507A08F9-1F83-4077-ACE4-D342926D0502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10EEF62-62E5-4A36-80A3-C207091FF16D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isyatirim" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,12 @@
     <t>AEFES</t>
   </si>
   <si>
-    <t>AL</t>
-  </si>
-  <si>
     <t>26.11.2020</t>
   </si>
   <si>
     <t>AKCNS</t>
   </si>
   <si>
-    <t>TUT</t>
-  </si>
-  <si>
     <t>ALKIM</t>
   </si>
   <si>
@@ -55,9 +49,6 @@
     <t>BIZIM</t>
   </si>
   <si>
-    <t>SAT</t>
-  </si>
-  <si>
     <t>CCOLA</t>
   </si>
   <si>
@@ -197,6 +188,15 @@
   </si>
   <si>
     <t>Rec. Date</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>HOLD</t>
   </si>
 </sst>
 </file>
@@ -559,42 +559,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1">
         <v>31</v>
@@ -611,13 +611,13 @@
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>926.92</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -631,10 +631,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1">
         <v>15.36</v>
@@ -643,13 +643,13 @@
         <v>-18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>113.77</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -663,10 +663,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1">
         <v>12.17</v>
@@ -675,13 +675,13 @@
         <v>-23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>173.13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1">
         <v>39.6</v>
@@ -707,13 +707,13 @@
         <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>2331.73</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1">
         <v>16.98</v>
@@ -739,13 +739,13 @@
         <v>-10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>4181.1400000000003</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -759,10 +759,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1">
         <v>87</v>
@@ -771,13 +771,13 @@
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>2317.12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -791,10 +791,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1">
         <v>15.5</v>
@@ -803,13 +803,13 @@
         <v>-3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
         <v>31.45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -823,10 +823,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1">
         <v>75</v>
@@ -835,13 +835,13 @@
         <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
         <v>1501.87</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1">
         <v>27</v>
@@ -867,13 +867,13 @@
         <v>-4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
         <v>1131.04</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1">
         <v>8.1999999999999993</v>
@@ -899,13 +899,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
         <v>3156.21</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -919,10 +919,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1">
         <v>14.32</v>
@@ -931,13 +931,13 @@
         <v>-5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
         <v>2590.69</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -951,10 +951,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1">
         <v>130.6</v>
@@ -963,13 +963,13 @@
         <v>-3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
         <v>4106.71</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -983,10 +983,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1">
         <v>10.14</v>
@@ -995,13 +995,13 @@
         <v>-25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <v>513.91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1">
         <v>13.65</v>
@@ -1027,13 +1027,13 @@
         <v>-17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
         <v>961.72</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -1047,10 +1047,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1">
         <v>90.57</v>
@@ -1059,13 +1059,13 @@
         <v>-24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <v>2084.04</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -1079,10 +1079,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1">
         <v>6.04</v>
@@ -1091,13 +1091,13 @@
         <v>-2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
         <v>-26.9</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1">
         <v>128.97999999999999</v>
@@ -1123,13 +1123,13 @@
         <v>-3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
         <v>125.23</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1">
         <v>60</v>
@@ -1155,13 +1155,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
         <v>16.34</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1">
         <v>53</v>
@@ -1187,13 +1187,13 @@
         <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
         <v>-191.03</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1">
         <v>23.33</v>
@@ -1219,13 +1219,13 @@
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
         <v>51.51</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1">
         <v>265</v>
@@ -1251,13 +1251,13 @@
         <v>-37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
         <v>504.77</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1">
         <v>4.55</v>
@@ -1283,13 +1283,13 @@
         <v>-50</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
         <v>239.79</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -1303,10 +1303,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1">
         <v>4.2</v>
@@ -1315,13 +1315,13 @@
         <v>-20</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
         <v>687.03</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1">
         <v>78.25</v>
@@ -1347,13 +1347,13 @@
         <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
         <v>-1589.64</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1">
         <v>12.79</v>
@@ -1379,13 +1379,13 @@
         <v>-5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F26" s="1">
         <v>628.88</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -1399,10 +1399,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C27" s="1">
         <v>8.7200000000000006</v>
@@ -1411,13 +1411,13 @@
         <v>17</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1">
         <v>1781.98</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1">
         <v>24.8</v>
@@ -1443,13 +1443,13 @@
         <v>16</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1">
         <v>-1759.81</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -1463,10 +1463,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1">
         <v>21.62</v>
@@ -1475,13 +1475,13 @@
         <v>28</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1">
         <v>4193.7299999999996</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -1495,10 +1495,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C30" s="1">
         <v>15.45</v>
@@ -1507,13 +1507,13 @@
         <v>21</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1">
         <v>-6968.47</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -1527,10 +1527,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C31" s="1">
         <v>19.05</v>
@@ -1539,13 +1539,13 @@
         <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1">
         <v>355.73</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C32" s="1">
         <v>38.200000000000003</v>
@@ -1571,13 +1571,13 @@
         <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1">
         <v>2154.38</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -1591,10 +1591,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C33" s="1">
         <v>10.81</v>
@@ -1603,13 +1603,13 @@
         <v>23</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1">
         <v>3379.38</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -1623,10 +1623,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C34" s="1">
         <v>164</v>
@@ -1635,13 +1635,13 @@
         <v>-11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1">
         <v>668.97</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -1655,10 +1655,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C35" s="1">
         <v>115.02</v>
@@ -1667,13 +1667,13 @@
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1">
         <v>-2578.02</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C36" s="1">
         <v>27.5</v>
@@ -1699,13 +1699,13 @@
         <v>20</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="1">
         <v>911.36</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -1719,10 +1719,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C37" s="1">
         <v>44.6</v>
@@ -1731,13 +1731,13 @@
         <v>10</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1">
         <v>1267.96</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C38" s="1">
         <v>25.45</v>
@@ -1763,13 +1763,13 @@
         <v>16</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1">
         <v>1409.78</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C39" s="1">
         <v>14.71</v>
@@ -1795,13 +1795,13 @@
         <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" s="1">
         <v>137.13</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
